--- a/EL - Electrical/Autre/Carte avant/Pin Carte Avant.xlsx
+++ b/EL - Electrical/Autre/Carte avant/Pin Carte Avant.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732C0DFB-7E06-4DB5-B0F5-AF625C8545F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>GND</t>
   </si>
@@ -128,12 +127,15 @@
   </si>
   <si>
     <t>N_PIN</t>
+  </si>
+  <si>
+    <t>LED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,7 +145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +164,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -175,11 +183,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -217,7 +226,7 @@
         <xdr:cNvPr id="3" name="Image 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55129FAB-B89E-42C3-997C-596B13A4DE44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55129FAB-B89E-42C3-997C-596B13A4DE44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -304,7 +313,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -339,7 +348,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -516,24 +525,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -557,6 +566,9 @@
       </c>
     </row>
     <row r="4" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="Q4" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="U4" t="s">
         <v>31</v>
       </c>
@@ -606,10 +618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>18</v>
       </c>
@@ -623,10 +632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E18" s="2" t="s">
         <v>0</v>
       </c>
@@ -634,7 +640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
         <v>0</v>
       </c>
@@ -645,7 +651,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>7</v>
       </c>
@@ -656,39 +662,42 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="L21">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>9</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="M22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>8</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="M23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>10</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="3">
         <v>3</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
         <v>11</v>
       </c>
@@ -699,21 +708,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>23</v>
       </c>
@@ -724,7 +730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="G31" s="1" t="s">
         <v>4</v>
       </c>
@@ -735,7 +741,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="G32" s="1" t="s">
         <v>0</v>
       </c>

--- a/EL - Electrical/Autre/Carte avant/Pin Carte Avant.xlsx
+++ b/EL - Electrical/Autre/Carte avant/Pin Carte Avant.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732C0DFB-7E06-4DB5-B0F5-AF625C8545F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>GND</t>
   </si>
@@ -127,15 +128,12 @@
   </si>
   <si>
     <t>N_PIN</t>
-  </si>
-  <si>
-    <t>LED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,7 +143,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,12 +162,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -183,12 +175,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -226,7 +217,7 @@
         <xdr:cNvPr id="3" name="Image 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55129FAB-B89E-42C3-997C-596B13A4DE44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55129FAB-B89E-42C3-997C-596B13A4DE44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -313,7 +304,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -348,7 +339,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -525,24 +516,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -566,9 +557,6 @@
       </c>
     </row>
     <row r="4" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="Q4" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="U4" t="s">
         <v>31</v>
       </c>
@@ -618,7 +606,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
       <c r="D17" t="s">
         <v>18</v>
       </c>
@@ -632,7 +623,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
       <c r="E18" s="2" t="s">
         <v>0</v>
       </c>
@@ -640,7 +634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
         <v>0</v>
       </c>
@@ -651,7 +645,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>7</v>
       </c>
@@ -662,42 +656,39 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.3">
       <c r="L21">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22">
         <v>5</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>8</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23">
         <v>4</v>
       </c>
-      <c r="M23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>10</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N24" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
         <v>11</v>
       </c>
@@ -708,18 +699,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>23</v>
       </c>
@@ -730,7 +724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.3">
       <c r="G31" s="1" t="s">
         <v>4</v>
       </c>
@@ -741,7 +735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.3">
       <c r="G32" s="1" t="s">
         <v>0</v>
       </c>

--- a/EL - Electrical/Autre/Carte avant/Pin Carte Avant.xlsx
+++ b/EL - Electrical/Autre/Carte avant/Pin Carte Avant.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903250AB-CA29-4627-9B4A-592786C1296E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>GND</t>
   </si>
@@ -108,35 +109,44 @@
     <t>TV_Switch</t>
   </si>
   <si>
-    <t>CLOCKPIN</t>
-  </si>
-  <si>
-    <t>DATAPIN</t>
-  </si>
-  <si>
     <t>LC_Switch</t>
   </si>
   <si>
     <t>LC_LED_PIN</t>
   </si>
   <si>
-    <t>RAZ_PIN</t>
-  </si>
-  <si>
     <t>H_PIN</t>
   </si>
   <si>
     <t>N_PIN</t>
   </si>
   <si>
+    <t>LED_DATA</t>
+  </si>
+  <si>
+    <t>LED_CLOCK</t>
+  </si>
+  <si>
     <t>LED</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>USABLE ???</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,8 +154,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,6 +196,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE59BFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8C71"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -183,18 +233,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF8C71"/>
+      <color rgb="FFE59BFF"/>
+      <color rgb="FFDB75FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -217,16 +281,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>576419</xdr:colOff>
+      <xdr:colOff>591659</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>135255</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Image 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55129FAB-B89E-42C3-997C-596B13A4DE44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55129FAB-B89E-42C3-997C-596B13A4DE44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -313,7 +377,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -348,7 +412,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -525,212 +589,239 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:W32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C2:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="4:21" x14ac:dyDescent="0.3">
       <c r="Q2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="W2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="4:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="4:21" x14ac:dyDescent="0.3">
       <c r="Q3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="4:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="4:21" x14ac:dyDescent="0.3">
       <c r="Q4" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="Q5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="U5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="U6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="4:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="Q6" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="Q7" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="U9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="4:21" x14ac:dyDescent="0.3">
       <c r="L13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="E14" t="s">
+    <row r="14" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D15" t="s">
+    <row r="15" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="4:23" x14ac:dyDescent="0.3">
-      <c r="D16" t="s">
+      <c r="M15" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D17" t="s">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C17" s="3"/>
+      <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="10">
         <v>10</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="E18" s="2" t="s">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C18" s="3"/>
+      <c r="E18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="E19" t="s">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="E19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="10">
         <v>8</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="E20" t="s">
+      <c r="N19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="E20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="10">
         <v>7</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="L21">
+      <c r="N20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="E21" s="3"/>
+      <c r="L21" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="E22" t="s">
+      <c r="M21" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="10">
         <v>5</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="E23" t="s">
+      <c r="O22" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="E23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="10">
         <v>4</v>
       </c>
-      <c r="M23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="E24" t="s">
+      <c r="O23" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="E24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="E25" t="s">
+      <c r="N24" s="6"/>
+      <c r="O24" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="E25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="10">
         <v>2</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="10" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
+      <c r="N26" s="9"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="10" t="s">
         <v>13</v>
       </c>
       <c r="L27" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.3">
       <c r="G31" s="1" t="s">
         <v>4</v>
       </c>
@@ -741,7 +832,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.3">
       <c r="G32" s="1" t="s">
         <v>0</v>
       </c>

--- a/EL - Electrical/Autre/Carte avant/Pin Carte Avant.xlsx
+++ b/EL - Electrical/Autre/Carte avant/Pin Carte Avant.xlsx
@@ -3,30 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903250AB-CA29-4627-9B4A-592786C1296E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C73DEA-B12F-4B0E-9EB9-88FCF406F4B0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>GND</t>
   </si>
@@ -140,6 +134,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Error_motored</t>
   </si>
 </sst>
 </file>
@@ -280,8 +280,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>591659</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>6551</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>135255</xdr:rowOff>
     </xdr:to>
@@ -597,63 +597,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:U32"/>
+  <dimension ref="C2:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="4:21" x14ac:dyDescent="0.25">
       <c r="Q2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:21" x14ac:dyDescent="0.25">
       <c r="Q3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:21" x14ac:dyDescent="0.25">
       <c r="Q4" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:21" x14ac:dyDescent="0.25">
       <c r="Q5" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:21" x14ac:dyDescent="0.25">
       <c r="Q6" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:21" x14ac:dyDescent="0.25">
       <c r="Q7" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:21" x14ac:dyDescent="0.25">
       <c r="U9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:21" x14ac:dyDescent="0.25">
       <c r="L13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:21" x14ac:dyDescent="0.25">
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
@@ -661,7 +661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
         <v>18</v>
       </c>
@@ -685,8 +685,11 @@
       <c r="L16" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="N16" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
       <c r="D17" s="1" t="s">
         <v>18</v>
@@ -701,7 +704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
       <c r="E18" s="10" t="s">
         <v>0</v>
@@ -709,8 +712,11 @@
       <c r="L18" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="N18" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="E19" s="3" t="s">
         <v>0</v>
       </c>
@@ -723,11 +729,8 @@
       <c r="N19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O19" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="E20" s="3" t="s">
         <v>7</v>
       </c>
@@ -740,11 +743,8 @@
       <c r="N20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O20" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="E21" s="3"/>
       <c r="L21" s="10">
         <v>6</v>
@@ -752,8 +752,14 @@
       <c r="M21" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="T21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
       <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
@@ -764,7 +770,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D23" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="E23" s="3" t="s">
         <v>8</v>
       </c>
@@ -775,7 +784,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D24" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E24" s="3" t="s">
         <v>10</v>
       </c>
@@ -787,7 +799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="E25" s="3" t="s">
         <v>11</v>
       </c>
@@ -798,7 +810,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
         <v>24</v>
       </c>
@@ -810,7 +822,7 @@
       </c>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
         <v>23</v>
       </c>
@@ -821,7 +833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
       <c r="G31" s="1" t="s">
         <v>4</v>
       </c>
@@ -832,7 +844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
       <c r="G32" s="1" t="s">
         <v>0</v>
       </c>
@@ -841,6 +853,11 @@
       </c>
       <c r="I32" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P43" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/EL - Electrical/Autre/Carte avant/Pin Carte Avant.xlsx
+++ b/EL - Electrical/Autre/Carte avant/Pin Carte Avant.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C73DEA-B12F-4B0E-9EB9-88FCF406F4B0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83425D5-2320-43EC-922D-2509E8670109}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Provisoire" sheetId="1" r:id="rId1"/>
+    <sheet name="Final" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="40">
   <si>
     <t>GND</t>
   </si>
@@ -233,17 +234,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -313,6 +312,70 @@
         <a:xfrm rot="5400000">
           <a:off x="2181779" y="774780"/>
           <a:ext cx="5265420" cy="3715860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>93617</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>681466</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>135255</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B61FF3C5-C2A5-4049-A933-BD0C4AC030C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7399" t="5490" r="9511" b="4916"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="3291714" y="775189"/>
+          <a:ext cx="5316855" cy="3766477"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -599,241 +662,238 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:21" x14ac:dyDescent="0.3">
       <c r="Q2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:21" x14ac:dyDescent="0.3">
       <c r="Q3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="Q4" s="4" t="s">
+    <row r="4" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="Q4" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="Q5" s="5" t="s">
+    <row r="5" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="Q5" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="Q6" s="8" t="s">
+    <row r="6" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="Q6" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="Q7" s="11" t="s">
+    <row r="7" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="Q7" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:21" x14ac:dyDescent="0.3">
       <c r="U9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:21" x14ac:dyDescent="0.3">
       <c r="L13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="E14" s="3" t="s">
+    <row r="14" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="8">
         <v>12</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16">
         <v>11</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="8">
         <v>10</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C18" s="3"/>
-      <c r="E18" s="10" t="s">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="E18" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18">
         <v>9</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="E19" s="3" t="s">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
         <v>0</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="8">
         <v>8</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="E20" s="3" t="s">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
         <v>7</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="8">
         <v>7</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="E21" s="3"/>
-      <c r="L21" s="10">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="L21" s="8">
         <v>6</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="M21" s="4" t="s">
         <v>30</v>
       </c>
       <c r="T21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="8">
         <v>5</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="O22" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="D23" s="8" t="s">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="D23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" t="s">
         <v>8</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="8">
         <v>4</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="O23" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="D24" s="8" t="s">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="D24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" t="s">
         <v>10</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="8">
         <v>3</v>
       </c>
-      <c r="N24" s="6"/>
-      <c r="O24" s="11" t="s">
+      <c r="N24" s="5"/>
+      <c r="O24" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="E25" s="3" t="s">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="8">
         <v>2</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" t="s">
         <v>1</v>
       </c>
-      <c r="N26" s="9"/>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="8" t="s">
         <v>13</v>
       </c>
       <c r="L27" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:20" x14ac:dyDescent="0.3">
       <c r="G31" s="1" t="s">
         <v>4</v>
       </c>
@@ -844,7 +904,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:20" x14ac:dyDescent="0.3">
       <c r="G32" s="1" t="s">
         <v>0</v>
       </c>
@@ -855,9 +915,142 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P43" t="s">
         <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65D77ED-2283-410C-8346-4F6300DF977F}">
+  <dimension ref="E12:K26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/EL - Electrical/Autre/Carte avant/Pin Carte Avant.xlsx
+++ b/EL - Electrical/Autre/Carte avant/Pin Carte Avant.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83425D5-2320-43EC-922D-2509E8670109}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
-    <sheet name="Provisoire" sheetId="1" r:id="rId1"/>
-    <sheet name="Final" sheetId="2" r:id="rId2"/>
+    <sheet name="Final" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>GND</t>
   </si>
@@ -77,21 +75,6 @@
     <t>MISO</t>
   </si>
   <si>
-    <t>Shield</t>
-  </si>
-  <si>
-    <t>Shield_INT</t>
-  </si>
-  <si>
-    <t>Shield_CS</t>
-  </si>
-  <si>
-    <t>Shield_7</t>
-  </si>
-  <si>
-    <t>Shield_8</t>
-  </si>
-  <si>
     <t>I2C_CLOCK</t>
   </si>
   <si>
@@ -101,12 +84,6 @@
     <t>7SEG</t>
   </si>
   <si>
-    <t>TV_Switch</t>
-  </si>
-  <si>
-    <t>LC_Switch</t>
-  </si>
-  <si>
     <t>LC_LED_PIN</t>
   </si>
   <si>
@@ -116,38 +93,50 @@
     <t>N_PIN</t>
   </si>
   <si>
-    <t>LED_DATA</t>
-  </si>
-  <si>
-    <t>LED_CLOCK</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>USABLE ???</t>
-  </si>
-  <si>
-    <t>LC</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>z</t>
   </si>
   <si>
-    <t>Error_motored</t>
+    <t>CLOCKPIN</t>
+  </si>
+  <si>
+    <t>DATAPIN</t>
+  </si>
+  <si>
+    <t>Shield du CAN</t>
+  </si>
+  <si>
+    <t>Bandeau LED</t>
+  </si>
+  <si>
+    <t>Carte Arriere</t>
+  </si>
+  <si>
+    <t>Lauch Control</t>
+  </si>
+  <si>
+    <t>Temperature/Voltage Switch</t>
+  </si>
+  <si>
+    <t>CAN0_INT</t>
+  </si>
+  <si>
+    <t>TV_PIN</t>
+  </si>
+  <si>
+    <t>LC_SWITCH_PIN</t>
+  </si>
+  <si>
+    <t>CAN0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,17 +151,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,12 +191,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF8C71"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -241,10 +215,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -274,22 +250,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>518159</xdr:colOff>
+      <xdr:colOff>518157</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>6551</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>135255</xdr:rowOff>
+      <xdr:colOff>6549</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>41416</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Image 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55129FAB-B89E-42C3-997C-596B13A4DE44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55129FAB-B89E-42C3-997C-596B13A4DE44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -310,72 +286,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="5400000">
-          <a:off x="2181779" y="774780"/>
-          <a:ext cx="5265420" cy="3715860"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>93617</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>681466</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>135255</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B61FF3C5-C2A5-4049-A933-BD0C4AC030C3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="7399" t="5490" r="9511" b="4916"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="5400000">
-          <a:off x="3291714" y="775189"/>
-          <a:ext cx="5316855" cy="3766477"/>
+          <a:off x="2461384" y="947403"/>
+          <a:ext cx="5499655" cy="3604849"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -440,7 +352,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -475,7 +387,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -652,248 +564,221 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:U43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:U43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="8"/>
+    <col min="12" max="12" width="8.85546875" style="8"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.140625" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="5:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="Q2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="4:21" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="5:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="Q3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="4:21" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="5:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="Q4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="4:21" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="5:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="Q5" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="Q6" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="Q7" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="4:21" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="5:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="Q6" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="5:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="Q7" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="5:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="U9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="L13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="5:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="L13" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E14" t="s">
+    <row r="14" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="9">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D15" s="1" t="s">
-        <v>18</v>
-      </c>
+    <row r="15" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="9">
         <v>12</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D16" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="9">
         <v>11</v>
       </c>
-      <c r="N16" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="D17" s="1" t="s">
-        <v>18</v>
-      </c>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="9">
         <v>10</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E18" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="9">
         <v>9</v>
       </c>
-      <c r="N18" s="6" t="s">
+    </row>
+    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="E19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
+        <v>8</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="E20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="9">
+        <v>7</v>
+      </c>
+      <c r="M20" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="E19" t="s">
-        <v>0</v>
-      </c>
-      <c r="L19" s="8">
+    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="L21" s="9">
+        <v>6</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="T21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="E22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="9">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="E23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="L20" s="8">
-        <v>7</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="L21" s="8">
-        <v>6</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="L22" s="8">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="D23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23" s="8">
+      <c r="L23" s="9">
         <v>4</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="D24" s="7" t="s">
+      <c r="M23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E24" t="s">
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="E24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="9">
         <v>3</v>
       </c>
+      <c r="M24" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="N24" s="5"/>
-      <c r="O24" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="E25" t="s">
+    </row>
+    <row r="25" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="E25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="9">
         <v>2</v>
       </c>
       <c r="M25" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D26" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C26" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="8" t="s">
         <v>1</v>
       </c>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C27" s="2" t="s">
-        <v>23</v>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D27" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:20" x14ac:dyDescent="0.25">
       <c r="G31" s="1" t="s">
         <v>4</v>
       </c>
@@ -904,7 +789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:20" x14ac:dyDescent="0.25">
       <c r="G32" s="1" t="s">
         <v>0</v>
       </c>
@@ -915,144 +800,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="16:16" x14ac:dyDescent="0.3">
-      <c r="P43" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65D77ED-2283-410C-8346-4F6300DF977F}">
-  <dimension ref="E12:K26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="9" max="9" width="11.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="K12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E17" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E18" t="s">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="K20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="K22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E26" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" t="s">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="38" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="16:16" ht="14.45" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
